--- a/data/trans_orig/P0801-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P0801-Estudios-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>788229</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>760891</v>
+        <v>760561</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>812491</v>
+        <v>811681</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.7639930964058412</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.7374955350532982</v>
+        <v>0.737175693035414</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.7875090967613789</v>
+        <v>0.7867242200094923</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>764</v>
@@ -765,19 +765,19 @@
         <v>768587</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>726830</v>
+        <v>730615</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>799486</v>
+        <v>803712</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.5844263706940799</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.5526750786036529</v>
+        <v>0.5555528043020739</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.6079222344970934</v>
+        <v>0.6111355606076195</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>1546</v>
@@ -786,19 +786,19 @@
         <v>1556815</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>1514641</v>
+        <v>1511793</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>1603212</v>
+        <v>1603203</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.6633680325303803</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.645397450423707</v>
+        <v>0.6441838765619888</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.6831378457917249</v>
+        <v>0.6831340813797774</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>171580</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>149301</v>
+        <v>151864</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>195018</v>
+        <v>196069</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1663046987721136</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.144710139698416</v>
+        <v>0.1471940981359552</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1890215542296493</v>
+        <v>0.1900398958592765</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>387</v>
@@ -836,19 +836,19 @@
         <v>399100</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>367395</v>
+        <v>365788</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>434621</v>
+        <v>431948</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.3034722975506866</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.2793636949050055</v>
+        <v>0.2781420338724221</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.3304821112615907</v>
+        <v>0.3284493124563247</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>568</v>
@@ -857,19 +857,19 @@
         <v>570680</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>532947</v>
+        <v>531055</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>614572</v>
+        <v>617447</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.243170266900215</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2270917252455519</v>
+        <v>0.2262855801687149</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.261872575967584</v>
+        <v>0.2630979006940469</v>
       </c>
     </row>
     <row r="6">
@@ -886,19 +886,19 @@
         <v>71913</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>57708</v>
+        <v>57676</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>89059</v>
+        <v>88293</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.06970220482204516</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.05593327474101824</v>
+        <v>0.05590287685647021</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.08632050904900979</v>
+        <v>0.08557800250133107</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>140</v>
@@ -907,19 +907,19 @@
         <v>147426</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>124050</v>
+        <v>124812</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>169324</v>
+        <v>172995</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.1121013317552336</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.09432671069175809</v>
+        <v>0.09490619372792608</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1287522374319547</v>
+        <v>0.1315437671599459</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>215</v>
@@ -928,19 +928,19 @@
         <v>219339</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>193457</v>
+        <v>192338</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>249407</v>
+        <v>249763</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.09346170056940464</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.08243324012499167</v>
+        <v>0.08195654351900949</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1062736641168994</v>
+        <v>0.106425629243431</v>
       </c>
     </row>
     <row r="7">
@@ -1032,19 +1032,19 @@
         <v>1598221</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1577113</v>
+        <v>1578374</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1616781</v>
+        <v>1616845</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9437871532760772</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.93132224241669</v>
+        <v>0.9320666949259788</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9547471793708169</v>
+        <v>0.9547845126194455</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1423</v>
@@ -1053,19 +1053,19 @@
         <v>1453264</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1428899</v>
+        <v>1428956</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1474953</v>
+        <v>1474151</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9153424528714744</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8999960036858186</v>
+        <v>0.900031845909486</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9290030554052426</v>
+        <v>0.9284980665758857</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>2977</v>
@@ -1074,19 +1074,19 @@
         <v>3051486</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>3022237</v>
+        <v>3021678</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>3080488</v>
+        <v>3080321</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9300231465757418</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9211087656150746</v>
+        <v>0.9209384753631799</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9388624469533966</v>
+        <v>0.9388113056431823</v>
       </c>
     </row>
     <row r="9">
@@ -1103,19 +1103,19 @@
         <v>74106</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>58910</v>
+        <v>59073</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>92301</v>
+        <v>91961</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.04376126470398262</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.034787702553349</v>
+        <v>0.0348841979321103</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.05450591674988867</v>
+        <v>0.05430523399877568</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>105</v>
@@ -1124,19 +1124,19 @@
         <v>106922</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>87204</v>
+        <v>88610</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>127548</v>
+        <v>128851</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.06734523287596324</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.05492540002915958</v>
+        <v>0.05581115850724403</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.08033654770434484</v>
+        <v>0.08115710746128021</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>178</v>
@@ -1145,19 +1145,19 @@
         <v>181028</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>156665</v>
+        <v>155392</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>207660</v>
+        <v>207476</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.0551732286664194</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.0477479986342472</v>
+        <v>0.047359954439679</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.0632901428623953</v>
+        <v>0.06323400567980268</v>
       </c>
     </row>
     <row r="10">
@@ -1174,19 +1174,19 @@
         <v>21086</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>13363</v>
+        <v>13118</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>30860</v>
+        <v>31051</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.0124515820199402</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.007891280527775718</v>
+        <v>0.007746411747957219</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.01822353969559898</v>
+        <v>0.01833626297875259</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>26</v>
@@ -1195,19 +1195,19 @@
         <v>27486</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>17512</v>
+        <v>18833</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>39483</v>
+        <v>41112</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.01731231425256232</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.01102996735554464</v>
+        <v>0.01186189294259767</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.02486845595360577</v>
+        <v>0.02589471945858778</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>48</v>
@@ -1216,19 +1216,19 @@
         <v>48572</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>35439</v>
+        <v>35213</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>62573</v>
+        <v>63359</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.01480362475783879</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.01080099987874962</v>
+        <v>0.01073200589158977</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.01907079830418536</v>
+        <v>0.01931037155917041</v>
       </c>
     </row>
     <row r="11">
@@ -1320,19 +1320,19 @@
         <v>524329</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>513022</v>
+        <v>512467</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>533923</v>
+        <v>533840</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.9508914703769221</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.9303855451642802</v>
+        <v>0.9293783257002889</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.9682910123423568</v>
+        <v>0.968139041136541</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>412</v>
@@ -1341,19 +1341,19 @@
         <v>433331</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>418280</v>
+        <v>419397</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>444718</v>
+        <v>444642</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.9095726458257325</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.8779797085259958</v>
+        <v>0.8803239504419063</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.9334743821356769</v>
+        <v>0.9333139050648948</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>914</v>
@@ -1362,19 +1362,19 @@
         <v>957660</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>938059</v>
+        <v>939374</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>972353</v>
+        <v>973103</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.9317395011409098</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.9126689418482693</v>
+        <v>0.9139483404290928</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.9460346443487146</v>
+        <v>0.946763964375867</v>
       </c>
     </row>
     <row r="13">
@@ -1391,19 +1391,19 @@
         <v>18515</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>11012</v>
+        <v>11451</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>28275</v>
+        <v>28700</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.03357758177782003</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01997123231250912</v>
+        <v>0.02076622452786538</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.05127817224771619</v>
+        <v>0.05204846523899905</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>32</v>
@@ -1412,19 +1412,19 @@
         <v>34949</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>24691</v>
+        <v>25154</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>50078</v>
+        <v>48100</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.0733594901258682</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.05182787985077955</v>
+        <v>0.05279905385319072</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1051153377004413</v>
+        <v>0.1009620153390804</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>50</v>
@@ -1433,19 +1433,19 @@
         <v>53464</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>41539</v>
+        <v>40344</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>71091</v>
+        <v>69104</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.05201716453719325</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.04041490018072769</v>
+        <v>0.03925171017446506</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.06916705908760974</v>
+        <v>0.06723329878118423</v>
       </c>
     </row>
     <row r="14">
@@ -1462,19 +1462,19 @@
         <v>8564</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>3555</v>
+        <v>3904</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>16947</v>
+        <v>18980</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.01553094784525789</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.006446502130339499</v>
+        <v>0.007079151506924826</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.03073360742018919</v>
+        <v>0.03442143882685015</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>8</v>
@@ -1483,19 +1483,19 @@
         <v>8131</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>3569</v>
+        <v>3788</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>15407</v>
+        <v>17144</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.0170678640483993</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.007490497566790153</v>
+        <v>0.007950912119957004</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.03233977525735979</v>
+        <v>0.0359859237583111</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>15</v>
@@ -1504,19 +1504,19 @@
         <v>16695</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>9881</v>
+        <v>9851</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>28147</v>
+        <v>27020</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.01624333432189704</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.009613612116753609</v>
+        <v>0.009583988425280623</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.02738495781529509</v>
+        <v>0.02628846228578963</v>
       </c>
     </row>
     <row r="15">
@@ -1608,19 +1608,19 @@
         <v>2910779</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>2874722</v>
+        <v>2874806</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>2945215</v>
+        <v>2944301</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.8883689154948771</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.8773644324784667</v>
+        <v>0.8773898927355674</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.8988786903449318</v>
+        <v>0.8985998644568961</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>2599</v>
@@ -1629,19 +1629,19 @@
         <v>2655182</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>2606762</v>
+        <v>2601501</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>2702427</v>
+        <v>2694574</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.7857434150350527</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.7714147014534226</v>
+        <v>0.7698577426417625</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.7997246561623249</v>
+        <v>0.7974007060451586</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>5437</v>
@@ -1650,19 +1650,19 @@
         <v>5565962</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>5504742</v>
+        <v>5505489</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>5625054</v>
+        <v>5622299</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.836264749448382</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.8270667490912892</v>
+        <v>0.8271789359680009</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.8451431960327884</v>
+        <v>0.8447292232217345</v>
       </c>
     </row>
     <row r="17">
@@ -1679,19 +1679,19 @@
         <v>264201</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>233278</v>
+        <v>234654</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>296076</v>
+        <v>297168</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.08063411624040026</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.07119635473172016</v>
+        <v>0.07161639177083202</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.09036224986122021</v>
+        <v>0.0906954717991971</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>524</v>
@@ -1700,19 +1700,19 @@
         <v>540972</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>500331</v>
+        <v>503448</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>584882</v>
+        <v>586365</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1600888393457106</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1480620625993608</v>
+        <v>0.1489845420807673</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1730830014556906</v>
+        <v>0.1735219103565266</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>796</v>
@@ -1721,19 +1721,19 @@
         <v>805173</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>753546</v>
+        <v>754921</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>859169</v>
+        <v>858012</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1209742078093381</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1132174502968542</v>
+        <v>0.1134239903447484</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1290868388467217</v>
+        <v>0.1289130058156721</v>
       </c>
     </row>
     <row r="18">
@@ -1750,19 +1750,19 @@
         <v>101563</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>84898</v>
+        <v>84817</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>123432</v>
+        <v>122123</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.03099696826472264</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.02591098870819802</v>
+        <v>0.02588606590268139</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.03767141782360228</v>
+        <v>0.03727192344294759</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>174</v>
@@ -1771,19 +1771,19 @@
         <v>183043</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>157766</v>
+        <v>158503</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>211016</v>
+        <v>211904</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.05416774561923661</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.04668756143846371</v>
+        <v>0.04690552047702047</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.06244559834458655</v>
+        <v>0.06270844801077681</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>278</v>
@@ -1792,19 +1792,19 @@
         <v>284606</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>252232</v>
+        <v>254625</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>318279</v>
+        <v>316794</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.04276104274227994</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.0378968361067046</v>
+        <v>0.03825644571088829</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.04782020588411287</v>
+        <v>0.04759713991341154</v>
       </c>
     </row>
     <row r="19">
@@ -2135,19 +2135,19 @@
         <v>665448</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>635560</v>
+        <v>629980</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>695960</v>
+        <v>692809</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.6827604490588809</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.6520950410590288</v>
+        <v>0.6463700006544503</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.7140670476961184</v>
+        <v>0.7108340187601614</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>641</v>
@@ -2156,19 +2156,19 @@
         <v>689266</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>649241</v>
+        <v>653868</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>721481</v>
+        <v>731231</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.515224627898705</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.4853057905025676</v>
+        <v>0.48876478398912</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.5393055121286386</v>
+        <v>0.5465937093654391</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>1268</v>
@@ -2177,19 +2177,19 @@
         <v>1354714</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>1306833</v>
+        <v>1307447</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>1404083</v>
+        <v>1405367</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.5858373349927293</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.5651316100223126</v>
+        <v>0.5653970433352643</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.6071867654769382</v>
+        <v>0.6077421534325872</v>
       </c>
     </row>
     <row r="5">
@@ -2206,19 +2206,19 @@
         <v>187236</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>161307</v>
+        <v>161710</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>212522</v>
+        <v>215049</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1921072827316278</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1655033265408465</v>
+        <v>0.1659167245604408</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2180510775376651</v>
+        <v>0.2206434004852695</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>369</v>
@@ -2227,19 +2227,19 @@
         <v>393954</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>362614</v>
+        <v>358417</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>428437</v>
+        <v>426190</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.2944792892725948</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.2710527436946406</v>
+        <v>0.2679156355100151</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.3202558922990308</v>
+        <v>0.3185762210884077</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>542</v>
@@ -2248,19 +2248,19 @@
         <v>581190</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>541642</v>
+        <v>534687</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>626288</v>
+        <v>621166</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2513317136529687</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2342298517353919</v>
+        <v>0.2312219048783072</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2708344108284792</v>
+        <v>0.2686191695565499</v>
       </c>
     </row>
     <row r="6">
@@ -2277,19 +2277,19 @@
         <v>121959</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>102379</v>
+        <v>102221</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>146647</v>
+        <v>147082</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1251322682094913</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1050423234119806</v>
+        <v>0.1048805879706077</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1504619871299007</v>
+        <v>0.1509084669130493</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>237</v>
@@ -2298,19 +2298,19 @@
         <v>254578</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>229393</v>
+        <v>226185</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>285404</v>
+        <v>283663</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.1902960828287002</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1714704764431868</v>
+        <v>0.1690723837117761</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.2133385584298449</v>
+        <v>0.2120374717428593</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>345</v>
@@ -2319,19 +2319,19 @@
         <v>376537</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>339813</v>
+        <v>338065</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>414620</v>
+        <v>417716</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.162830951354302</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1469497598915924</v>
+        <v>0.1461938706664734</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1792999987541201</v>
+        <v>0.1806385429746156</v>
       </c>
     </row>
     <row r="7">
@@ -2423,19 +2423,19 @@
         <v>1807819</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1782431</v>
+        <v>1784283</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1833026</v>
+        <v>1835945</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9204981885320452</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.907571270504278</v>
+        <v>0.9085142082185601</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9333329398474527</v>
+        <v>0.9348194205477769</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1449</v>
@@ -2444,19 +2444,19 @@
         <v>1547239</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1517650</v>
+        <v>1515101</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1574887</v>
+        <v>1577118</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.8802116139244923</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8633787595170144</v>
+        <v>0.8619286283858647</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8959406296977205</v>
+        <v>0.8972099214447695</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>3163</v>
@@ -2465,19 +2465,19 @@
         <v>3355057</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>3314338</v>
+        <v>3317737</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>3391770</v>
+        <v>3393907</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9014706728585664</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8905298702103589</v>
+        <v>0.8914431018429736</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9113350282801297</v>
+        <v>0.9119092754694409</v>
       </c>
     </row>
     <row r="9">
@@ -2494,19 +2494,19 @@
         <v>118586</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>95638</v>
+        <v>95732</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>139691</v>
+        <v>141513</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.06038133822733228</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.04869657119108724</v>
+        <v>0.04874425267849918</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.07112746844080428</v>
+        <v>0.07205482384684751</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>136</v>
@@ -2515,19 +2515,19 @@
         <v>152074</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>127250</v>
+        <v>127805</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>177135</v>
+        <v>178781</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.08651347757837834</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.07239165183928578</v>
+        <v>0.07270697536055055</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.1007708496500796</v>
+        <v>0.1017070317690925</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>243</v>
@@ -2536,19 +2536,19 @@
         <v>270660</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>239078</v>
+        <v>236608</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>303722</v>
+        <v>306322</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.07272365563523475</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.0642379240903266</v>
+        <v>0.06357421296668093</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.08160704773210739</v>
+        <v>0.08230581457015973</v>
       </c>
     </row>
     <row r="10">
@@ -2565,19 +2565,19 @@
         <v>37552</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>26717</v>
+        <v>26094</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>53051</v>
+        <v>51301</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.0191204732406225</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.0136034927141953</v>
+        <v>0.01328651213961388</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.02701232167516621</v>
+        <v>0.0261211217377277</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>50</v>
@@ -2586,19 +2586,19 @@
         <v>58491</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>43609</v>
+        <v>43370</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>79431</v>
+        <v>75586</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.03327490849712936</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.02480893468370047</v>
+        <v>0.02467258702343624</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.04518764618343482</v>
+        <v>0.04300038460903559</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>85</v>
@@ -2607,19 +2607,19 @@
         <v>96043</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>76107</v>
+        <v>77169</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>118129</v>
+        <v>120715</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.02580567150619887</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.02044914988702445</v>
+        <v>0.02073453967626865</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.03174005976485278</v>
+        <v>0.03243499679817169</v>
       </c>
     </row>
     <row r="11">
@@ -2711,19 +2711,19 @@
         <v>445853</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>429774</v>
+        <v>431087</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>457048</v>
+        <v>457906</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.9265813912974339</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.8931654612313408</v>
+        <v>0.8958930173265141</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.9498461104757632</v>
+        <v>0.9516302510456845</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>377</v>
@@ -2732,19 +2732,19 @@
         <v>419434</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>405520</v>
+        <v>405273</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>431013</v>
+        <v>431362</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.9145349652955035</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.8841958833651143</v>
+        <v>0.883657928517016</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.939782286187048</v>
+        <v>0.9405423185468618</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>786</v>
@@ -2753,19 +2753,19 @@
         <v>865288</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>846377</v>
+        <v>844765</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>882016</v>
+        <v>881407</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.9207027023987228</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.9005797760542538</v>
+        <v>0.8988645390317688</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.9385015424136482</v>
+        <v>0.9378533649173219</v>
       </c>
     </row>
     <row r="13">
@@ -2782,19 +2782,19 @@
         <v>28086</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>17923</v>
+        <v>17900</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>43400</v>
+        <v>42580</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.05836937785085375</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.0372482203275715</v>
+        <v>0.03720013055034387</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.09019486417477772</v>
+        <v>0.08849111272661682</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>29</v>
@@ -2803,19 +2803,19 @@
         <v>32957</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>22201</v>
+        <v>21700</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>46922</v>
+        <v>45591</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.07185866021442852</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.048407275751827</v>
+        <v>0.04731576398566308</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1023096739035295</v>
+        <v>0.0994067240493941</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>52</v>
@@ -2824,19 +2824,19 @@
         <v>61043</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>45615</v>
+        <v>45539</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>77624</v>
+        <v>80072</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.06495218460778057</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.04853640653248152</v>
+        <v>0.04845552569818693</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.08259536962942864</v>
+        <v>0.08519963453287296</v>
       </c>
     </row>
     <row r="14">
@@ -2853,19 +2853,19 @@
         <v>7241</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>3066</v>
+        <v>2137</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>16572</v>
+        <v>14941</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.0150492308517124</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.006372389687087992</v>
+        <v>0.004440728344106221</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.03443966658185799</v>
+        <v>0.03105075719204291</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>6</v>
@@ -2874,19 +2874,19 @@
         <v>6240</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>2280</v>
+        <v>2962</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>13660</v>
+        <v>13718</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.01360637449006796</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.004971485655207484</v>
+        <v>0.006458908524907834</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.02978455325546126</v>
+        <v>0.02991083463630667</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>12</v>
@@ -2895,19 +2895,19 @@
         <v>13482</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>7099</v>
+        <v>6958</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>22967</v>
+        <v>22497</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.01434511299349664</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.00755383837732099</v>
+        <v>0.007403380153667135</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.02443767616676754</v>
+        <v>0.02393732808398641</v>
       </c>
     </row>
     <row r="15">
@@ -2999,19 +2999,19 @@
         <v>2919121</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>2875111</v>
+        <v>2875494</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>2962218</v>
+        <v>2960940</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.8535985113588138</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.8407293540509669</v>
+        <v>0.8408412633849357</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.8662008874760266</v>
+        <v>0.8658269866099404</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>2467</v>
@@ -3020,19 +3020,19 @@
         <v>2655938</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>2601619</v>
+        <v>2605579</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>2706881</v>
+        <v>2706939</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.747261147915267</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.7319782531600655</v>
+        <v>0.733092458621678</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.7615943210361166</v>
+        <v>0.7616106060389578</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>5217</v>
@@ -3041,19 +3041,19 @@
         <v>5575059</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>5494227</v>
+        <v>5503722</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>5643098</v>
+        <v>5640703</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.7994048176173799</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.7878143431390395</v>
+        <v>0.7891759109100823</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.8091608888625295</v>
+        <v>0.8088174819215034</v>
       </c>
     </row>
     <row r="17">
@@ -3070,19 +3070,19 @@
         <v>333909</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>296743</v>
+        <v>299755</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>368961</v>
+        <v>371279</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.09764033855649723</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.08677262708185558</v>
+        <v>0.08765317424325125</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1078902306276437</v>
+        <v>0.1085680801625742</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>534</v>
@@ -3091,19 +3091,19 @@
         <v>578984</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>535012</v>
+        <v>536098</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>629637</v>
+        <v>625689</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1628998587741836</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1505281041412141</v>
+        <v>0.1508337486029261</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1771515887155815</v>
+        <v>0.1760407546140844</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>837</v>
@@ -3112,19 +3112,19 @@
         <v>912892</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>852019</v>
+        <v>860879</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>973314</v>
+        <v>980984</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1308991512434206</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1221705768784387</v>
+        <v>0.1234409377743493</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1395629654971098</v>
+        <v>0.1406628301358178</v>
       </c>
     </row>
     <row r="18">
@@ -3141,19 +3141,19 @@
         <v>166753</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>139436</v>
+        <v>139785</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>196731</v>
+        <v>194483</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.04876115008468896</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.04077325781379963</v>
+        <v>0.04087540684798265</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.05752736955871303</v>
+        <v>0.05687009959483346</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>293</v>
@@ -3162,19 +3162,19 @@
         <v>319308</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>284388</v>
+        <v>286537</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>353105</v>
+        <v>356719</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.08983899331054943</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.08001402765292218</v>
+        <v>0.08061844943167037</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.09934780743084169</v>
+        <v>0.1003646574563084</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>442</v>
@@ -3183,19 +3183,19 @@
         <v>486061</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>441839</v>
+        <v>445003</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>532295</v>
+        <v>537388</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.06969603113919957</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.06335501567408089</v>
+        <v>0.06380879915925106</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.07632554647502311</v>
+        <v>0.07705581309742121</v>
       </c>
     </row>
     <row r="19">
@@ -3526,19 +3526,19 @@
         <v>506955</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>482669</v>
+        <v>481407</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>532568</v>
+        <v>531747</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.6720447818129681</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.6398501626292802</v>
+        <v>0.6381774383544192</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.7059984384234314</v>
+        <v>0.7049103081958009</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>487</v>
@@ -3547,19 +3547,19 @@
         <v>521292</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>490899</v>
+        <v>487406</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>555770</v>
+        <v>554279</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.5240904009039439</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.4935342415504917</v>
+        <v>0.4900231948825399</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.5587541636598522</v>
+        <v>0.5572546467728894</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>988</v>
@@ -3568,19 +3568,19 @@
         <v>1028247</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>984623</v>
+        <v>983102</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>1069073</v>
+        <v>1071756</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.5879031321595126</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.5629613689569266</v>
+        <v>0.562091698858154</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.6112458330920302</v>
+        <v>0.6127795569838423</v>
       </c>
     </row>
     <row r="5">
@@ -3597,19 +3597,19 @@
         <v>165075</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>143358</v>
+        <v>143649</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>187470</v>
+        <v>187709</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2188317836385171</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1900425877789802</v>
+        <v>0.1904284030471647</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2485199164828256</v>
+        <v>0.248835982173512</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>240</v>
@@ -3618,19 +3618,19 @@
         <v>274954</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>246220</v>
+        <v>242980</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>306197</v>
+        <v>304230</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.2764303386246477</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.2475421131772595</v>
+        <v>0.2442849624054329</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.3078408399706772</v>
+        <v>0.3058637944451156</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>412</v>
@@ -3639,19 +3639,19 @@
         <v>440029</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>405689</v>
+        <v>407922</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>480273</v>
+        <v>480628</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2515880792237646</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2319538430819048</v>
+        <v>0.2332304123985433</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2745975688378943</v>
+        <v>0.274800689325727</v>
       </c>
     </row>
     <row r="6">
@@ -3668,19 +3668,19 @@
         <v>82317</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>67671</v>
+        <v>67421</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>100833</v>
+        <v>100756</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1091234345485148</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.08970841283154349</v>
+        <v>0.08937613650981824</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1336696896872037</v>
+        <v>0.1335668598014785</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>165</v>
@@ -3689,19 +3689,19 @@
         <v>198414</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>173251</v>
+        <v>173078</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>227569</v>
+        <v>225576</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.1994792604714084</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1741809465586086</v>
+        <v>0.1740075099468668</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.2287907236103157</v>
+        <v>0.2267875034454299</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>254</v>
@@ -3710,19 +3710,19 @@
         <v>280731</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>250042</v>
+        <v>248517</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>314518</v>
+        <v>315807</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1605087886167228</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1429623397204858</v>
+        <v>0.1420902218950429</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1798265737806533</v>
+        <v>0.1805637575069248</v>
       </c>
     </row>
     <row r="7">
@@ -3814,19 +3814,19 @@
         <v>1891268</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1864465</v>
+        <v>1864163</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1917152</v>
+        <v>1915537</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9108467165032441</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8979382173000606</v>
+        <v>0.8977925154083374</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9233125575087364</v>
+        <v>0.9225347924334951</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1658</v>
@@ -3835,19 +3835,19 @@
         <v>1707628</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1673887</v>
+        <v>1669703</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1739127</v>
+        <v>1738766</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.8588382327217816</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8418683557032839</v>
+        <v>0.8397639999164701</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8746804382830951</v>
+        <v>0.874498844150464</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>3435</v>
@@ -3856,19 +3856,19 @@
         <v>3598897</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>3553517</v>
+        <v>3558770</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>3641318</v>
+        <v>3642984</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.885406006853603</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8742416430720814</v>
+        <v>0.8755340693594028</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8958425305700564</v>
+        <v>0.8962524420272894</v>
       </c>
     </row>
     <row r="9">
@@ -3885,19 +3885,19 @@
         <v>131945</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>110724</v>
+        <v>113000</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>154816</v>
+        <v>157880</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.06354532164230972</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.05332540581472688</v>
+        <v>0.05442131268849946</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.07456038550380613</v>
+        <v>0.07603578338323284</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>178</v>
@@ -3906,19 +3906,19 @@
         <v>199676</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>172626</v>
+        <v>175057</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>228624</v>
+        <v>230238</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.1004255563817037</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.08682080211480675</v>
+        <v>0.08804360253783136</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.1149847650881891</v>
+        <v>0.1157961823190029</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>303</v>
@@ -3927,19 +3927,19 @@
         <v>331621</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>297136</v>
+        <v>295657</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>370923</v>
+        <v>367884</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.08158582725977889</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.07310183002767852</v>
+        <v>0.07273790121123645</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.09125492931904232</v>
+        <v>0.09050735203321625</v>
       </c>
     </row>
     <row r="10">
@@ -3956,19 +3956,19 @@
         <v>53172</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>39358</v>
+        <v>39382</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>69684</v>
+        <v>70321</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.02560796185444611</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.01895494920956029</v>
+        <v>0.018966693900696</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.03356037023089094</v>
+        <v>0.03386688047858168</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>72</v>
@@ -3977,19 +3977,19 @@
         <v>80996</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>63349</v>
+        <v>63549</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>102046</v>
+        <v>101385</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.04073621089651466</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.03186101996165842</v>
+        <v>0.03196142244407071</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.05132306660760194</v>
+        <v>0.05099098746449132</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>122</v>
@@ -3998,19 +3998,19 @@
         <v>134168</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>113734</v>
+        <v>112596</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>163686</v>
+        <v>157917</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.03300816588661803</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.02798107701556979</v>
+        <v>0.02770110921207373</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.04027037869219001</v>
+        <v>0.03885108985739593</v>
       </c>
     </row>
     <row r="11">
@@ -4102,19 +4102,19 @@
         <v>508967</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>495086</v>
+        <v>493978</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>520227</v>
+        <v>520772</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.9306646847984119</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.9052811237357872</v>
+        <v>0.903255652261855</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.9512536057640728</v>
+        <v>0.9522493710752724</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>486</v>
@@ -4123,19 +4123,19 @@
         <v>503153</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>486887</v>
+        <v>487265</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>515615</v>
+        <v>515124</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.9162569880898906</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.886635798216827</v>
+        <v>0.8873236361162411</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.9389508339896341</v>
+        <v>0.9380552117160165</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>955</v>
@@ -4144,19 +4144,19 @@
         <v>1012122</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>992277</v>
+        <v>991876</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>1031154</v>
+        <v>1029672</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.9234460206483646</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.9053400536788601</v>
+        <v>0.9049744241821133</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.9408108811744044</v>
+        <v>0.9394587949312934</v>
       </c>
     </row>
     <row r="13">
@@ -4173,19 +4173,19 @@
         <v>27132</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>17711</v>
+        <v>17312</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>40518</v>
+        <v>40229</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.04961146642253186</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.03238566867231892</v>
+        <v>0.03165620535092054</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.07408788196850057</v>
+        <v>0.0735597430593143</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>25</v>
@@ -4194,19 +4194,19 @@
         <v>27042</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>17715</v>
+        <v>17932</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>39574</v>
+        <v>40617</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.04924382461839143</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.03225926273005824</v>
+        <v>0.0326555606482176</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.07206490140240455</v>
+        <v>0.07396469454527897</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>47</v>
@@ -4215,19 +4215,19 @@
         <v>54174</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>39807</v>
+        <v>40605</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>71112</v>
+        <v>71630</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.04942726746517613</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.03631946585541798</v>
+        <v>0.03704766242275688</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.06488132060270094</v>
+        <v>0.06535381719893063</v>
       </c>
     </row>
     <row r="14">
@@ -4244,19 +4244,19 @@
         <v>10787</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>5694</v>
+        <v>5763</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>19865</v>
+        <v>19160</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.01972384877905619</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.01041174039348769</v>
+        <v>0.01053812132252364</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.03632301430909227</v>
+        <v>0.03503439691350701</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>15</v>
@@ -4265,19 +4265,19 @@
         <v>18945</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>11028</v>
+        <v>10975</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>31771</v>
+        <v>29910</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.03449918729171796</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.02008257814689093</v>
+        <v>0.01998587355289135</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.05785612563423927</v>
+        <v>0.05446704131539847</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>25</v>
@@ -4286,19 +4286,19 @@
         <v>29732</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>19738</v>
+        <v>19258</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>43455</v>
+        <v>43327</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.0271267118864593</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.01800834132431696</v>
+        <v>0.01757093907502887</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.03964809686208137</v>
+        <v>0.039531127632153</v>
       </c>
     </row>
     <row r="15">
@@ -4390,19 +4390,19 @@
         <v>2907191</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>2866919</v>
+        <v>2868276</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>2943848</v>
+        <v>2949513</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.8607222493855262</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.8487990505448623</v>
+        <v>0.8492009741512773</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.8715750642561954</v>
+        <v>0.873252261032865</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>2631</v>
@@ -4411,19 +4411,19 @@
         <v>2732073</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>2681562</v>
+        <v>2679450</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>2782346</v>
+        <v>2785680</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.7734982549390162</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.7591975112577498</v>
+        <v>0.7585996620349416</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.7877315189568347</v>
+        <v>0.7886754172889112</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>5378</v>
@@ -4432,19 +4432,19 @@
         <v>5639264</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>5567444</v>
+        <v>5575032</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>5705386</v>
+        <v>5702411</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.8161352056883361</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.805741066881273</v>
+        <v>0.8068393477309138</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.8257046375273023</v>
+        <v>0.8252741010329001</v>
       </c>
     </row>
     <row r="17">
@@ -4461,19 +4461,19 @@
         <v>324151</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>292669</v>
+        <v>289436</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>358669</v>
+        <v>358190</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.09597042501907571</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.08664965079859593</v>
+        <v>0.08569220814665787</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1061899202589777</v>
+        <v>0.1060480069185294</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>443</v>
@@ -4482,19 +4482,19 @@
         <v>501672</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>458992</v>
+        <v>454517</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>544634</v>
+        <v>545174</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1420322408971682</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1299486691058245</v>
+        <v>0.1286817392169143</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1541955739662048</v>
+        <v>0.1543484672468938</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>762</v>
@@ -4503,19 +4503,19 @@
         <v>825824</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>775862</v>
+        <v>775372</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>888646</v>
+        <v>883433</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1195162418595083</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1122856219685247</v>
+        <v>0.1122147739764222</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1286081673081803</v>
+        <v>0.1278536473390042</v>
       </c>
     </row>
     <row r="18">
@@ -4532,19 +4532,19 @@
         <v>146276</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>125415</v>
+        <v>125312</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>173582</v>
+        <v>172962</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.0433073255953981</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.03713111253741198</v>
+        <v>0.0371006687757503</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.05139171530873495</v>
+        <v>0.05120814937717703</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>252</v>
@@ -4553,19 +4553,19 @@
         <v>298355</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>265002</v>
+        <v>263063</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>333964</v>
+        <v>335716</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.08446950416381556</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.07502667310338888</v>
+        <v>0.07447768443555138</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.0945511742776135</v>
+        <v>0.09504709212767982</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>401</v>
@@ -4574,19 +4574,19 @@
         <v>444630</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>398485</v>
+        <v>400331</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>484941</v>
+        <v>482769</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.06434855245215559</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.05767028505341989</v>
+        <v>0.05793738938475016</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.07018248651006639</v>
+        <v>0.06986804790067798</v>
       </c>
     </row>
     <row r="19">
@@ -4917,19 +4917,19 @@
         <v>395079</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>371825</v>
+        <v>374148</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>413988</v>
+        <v>415167</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.6829033807201378</v>
+        <v>0.6829033807201377</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.6427071115821601</v>
+        <v>0.646722535324691</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.7155869292162332</v>
+        <v>0.7176252549731331</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>640</v>
@@ -4938,19 +4938,19 @@
         <v>387077</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>366481</v>
+        <v>364166</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>409112</v>
+        <v>409793</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.4708742915419502</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.4458200908847519</v>
+        <v>0.4430036348896879</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.497680499426568</v>
+        <v>0.4985088643364977</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>1092</v>
@@ -4959,19 +4959,19 @@
         <v>782156</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>752025</v>
+        <v>750015</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>814566</v>
+        <v>814060</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.5584567065983039</v>
+        <v>0.5584567065983038</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.5369434144215425</v>
+        <v>0.5355083902774517</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.5815971737143835</v>
+        <v>0.5812356911093217</v>
       </c>
     </row>
     <row r="5">
@@ -4988,19 +4988,19 @@
         <v>109422</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>93541</v>
+        <v>92495</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>130165</v>
+        <v>128442</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.1891386065783423</v>
+        <v>0.1891386065783424</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.161687501014143</v>
+        <v>0.1598799640302152</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2249938212684673</v>
+        <v>0.2220147764209833</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>426</v>
@@ -5009,19 +5009,19 @@
         <v>234850</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>216864</v>
+        <v>216243</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>254684</v>
+        <v>254332</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.2856923578463837</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.2638124145477371</v>
+        <v>0.2630570442811856</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.3098203673630426</v>
+        <v>0.3093915623427813</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>561</v>
@@ -5030,19 +5030,19 @@
         <v>344272</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>313369</v>
+        <v>314869</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>369687</v>
+        <v>370993</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2458091005462553</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2237443882532014</v>
+        <v>0.2248151967777979</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2639548911697347</v>
+        <v>0.2648880628696587</v>
       </c>
     </row>
     <row r="6">
@@ -5059,19 +5059,19 @@
         <v>74027</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>60884</v>
+        <v>61370</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>92001</v>
+        <v>90920</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.12795801270152</v>
+        <v>0.1279580127015201</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1052398522412737</v>
+        <v>0.106079358877296</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1590262497555496</v>
+        <v>0.1571566503733277</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>361</v>
@@ -5080,19 +5080,19 @@
         <v>200111</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>180707</v>
+        <v>180646</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>217378</v>
+        <v>217847</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.243433350611666</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.219828013179207</v>
+        <v>0.219753298908699</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.2644373929496247</v>
+        <v>0.2650090105939197</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>465</v>
@@ -5101,19 +5101,19 @@
         <v>274139</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>251953</v>
+        <v>250222</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>299963</v>
+        <v>298135</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1957341928554409</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1798937603913089</v>
+        <v>0.1786578182220065</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.2141724082843935</v>
+        <v>0.2128673561377572</v>
       </c>
     </row>
     <row r="7">
@@ -5205,19 +5205,19 @@
         <v>1950295</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1916193</v>
+        <v>1918908</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1980751</v>
+        <v>1984092</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.8743499722983477</v>
+        <v>0.8743499722983475</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8590612389395614</v>
+        <v>0.8602784537185969</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8880037348118651</v>
+        <v>0.8895013707418308</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>2379</v>
@@ -5226,19 +5226,19 @@
         <v>1843049</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1812237</v>
+        <v>1815624</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1869560</v>
+        <v>1871919</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.8487869861661306</v>
+        <v>0.8487869861661304</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8345969624422195</v>
+        <v>0.8361565919586786</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8609958618397592</v>
+        <v>0.8620825351220829</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>4077</v>
@@ -5247,19 +5247,19 @@
         <v>3793345</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>3752823</v>
+        <v>3749323</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>3835285</v>
+        <v>3834149</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.861740297051711</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8525348272130876</v>
+        <v>0.8517396257880832</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8712676715938535</v>
+        <v>0.8710097608336701</v>
       </c>
     </row>
     <row r="9">
@@ -5276,19 +5276,19 @@
         <v>213894</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>186733</v>
+        <v>187615</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>243345</v>
+        <v>243867</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.09589225372441493</v>
+        <v>0.09589225372441491</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.08371557692300341</v>
+        <v>0.08411109306006452</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1090956799334631</v>
+        <v>0.1093297963464443</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>413</v>
@@ -5297,19 +5297,19 @@
         <v>246527</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>221751</v>
+        <v>224229</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>272491</v>
+        <v>269564</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.1135341362385759</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.1021240926997829</v>
+        <v>0.1032653199760301</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.1254916161966081</v>
+        <v>0.1241435880425792</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>638</v>
@@ -5318,19 +5318,19 @@
         <v>460421</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>424391</v>
+        <v>423252</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>498161</v>
+        <v>499290</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.104594617685037</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.096409473769431</v>
+        <v>0.09615072021300856</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.1131679990097262</v>
+        <v>0.1134244507496378</v>
       </c>
     </row>
     <row r="10">
@@ -5347,19 +5347,19 @@
         <v>66377</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>52714</v>
+        <v>50857</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>85919</v>
+        <v>84139</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.02975777397723756</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.02363262631995454</v>
+        <v>0.02279990070706622</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.03851911773083154</v>
+        <v>0.03772085557012079</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>129</v>
@@ -5368,19 +5368,19 @@
         <v>81816</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>68797</v>
+        <v>65772</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>98201</v>
+        <v>95830</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.03767887759529349</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.03168324852522812</v>
+        <v>0.03029016502835852</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.04522467852145778</v>
+        <v>0.0441330485080393</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>198</v>
@@ -5389,19 +5389,19 @@
         <v>148192</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>127513</v>
+        <v>126423</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>173660</v>
+        <v>171539</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.03366508526325204</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.0289674005437307</v>
+        <v>0.02871972520804042</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.03945061833192826</v>
+        <v>0.03896875598627161</v>
       </c>
     </row>
     <row r="11">
@@ -5493,19 +5493,19 @@
         <v>665686</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>651172</v>
+        <v>651690</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>677601</v>
+        <v>677412</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.9354952392393217</v>
+        <v>0.9354952392393214</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.9150980275127573</v>
+        <v>0.9158266465437714</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.9522397018720872</v>
+        <v>0.9519729766807475</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>900</v>
@@ -5514,19 +5514,19 @@
         <v>668685</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>655497</v>
+        <v>654728</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>681095</v>
+        <v>680809</v>
       </c>
       <c r="N12" s="6" t="n">
-        <v>0.9099280448858634</v>
+        <v>0.9099280448858637</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.8919814967743489</v>
+        <v>0.8909359553836215</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.926814624038369</v>
+        <v>0.9264257602334071</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>1524</v>
@@ -5535,19 +5535,19 @@
         <v>1334371</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>1315327</v>
+        <v>1313296</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>1351228</v>
+        <v>1349493</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.9225058069312743</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.9093398133124957</v>
+        <v>0.9079355671431313</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.9341592346426939</v>
+        <v>0.9329597941790795</v>
       </c>
     </row>
     <row r="13">
@@ -5564,19 +5564,19 @@
         <v>31142</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>22165</v>
+        <v>22073</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>43034</v>
+        <v>43588</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.04376391139705941</v>
+        <v>0.0437639113970594</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.03114897836172155</v>
+        <v>0.03101949888856638</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.06047614399589023</v>
+        <v>0.06125515811977991</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>81</v>
@@ -5585,19 +5585,19 @@
         <v>49981</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>40204</v>
+        <v>39602</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>63397</v>
+        <v>62174</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.06801279392173097</v>
+        <v>0.06801279392173096</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.0547090439969431</v>
+        <v>0.05388904115778878</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.08626822961740739</v>
+        <v>0.08460520339771208</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>120</v>
@@ -5606,19 +5606,19 @@
         <v>81123</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>67536</v>
+        <v>67207</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>97928</v>
+        <v>97480</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.05608357438962439</v>
+        <v>0.05608357438962438</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.04669034618521308</v>
+        <v>0.04646313975195682</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.06770155083159995</v>
+        <v>0.06739198459854656</v>
       </c>
     </row>
     <row r="14">
@@ -5635,19 +5635,19 @@
         <v>14759</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>8630</v>
+        <v>8589</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>22388</v>
+        <v>23064</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.02074084936361905</v>
+        <v>0.02074084936361904</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.01212730003115672</v>
+        <v>0.01207000832540851</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.03146214105292923</v>
+        <v>0.03241175410214197</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>23</v>
@@ -5656,19 +5656,19 @@
         <v>16211</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>10156</v>
+        <v>10795</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>24498</v>
+        <v>25858</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.02205916119240547</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.01381934364178547</v>
+        <v>0.01469017881248032</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.03333611250954329</v>
+        <v>0.03518706804562706</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>41</v>
@@ -5677,19 +5677,19 @@
         <v>30970</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>22065</v>
+        <v>22337</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>43224</v>
+        <v>41825</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.02141061867910138</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.01525463320955178</v>
+        <v>0.01544215685304156</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.0298825275789874</v>
+        <v>0.02891560585346623</v>
       </c>
     </row>
     <row r="15">
@@ -5781,19 +5781,19 @@
         <v>3011062</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>2965339</v>
+        <v>2965738</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>3052539</v>
+        <v>3051393</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.855249329289046</v>
+        <v>0.8552493292890458</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.8422624652387495</v>
+        <v>0.8423756655580046</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.867030373168714</v>
+        <v>0.8667049644528045</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>3919</v>
@@ -5802,19 +5802,19 @@
         <v>2898811</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>2857740</v>
+        <v>2859001</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>2940293</v>
+        <v>2938741</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.7775140597794039</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.7664981229567879</v>
+        <v>0.7668363938788356</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.7886403381253754</v>
+        <v>0.7882239506785599</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>6693</v>
@@ -5823,19 +5823,19 @@
         <v>5909873</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>5849202</v>
+        <v>5847667</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>5964466</v>
+        <v>5962896</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.8152684536027277</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.8068989008591063</v>
+        <v>0.8066871320377017</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.8227996042526591</v>
+        <v>0.8225829849495829</v>
       </c>
     </row>
     <row r="17">
@@ -5852,19 +5852,19 @@
         <v>354458</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>321021</v>
+        <v>321796</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>391601</v>
+        <v>393883</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.1006787983076917</v>
+        <v>0.1006787983076918</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.09118155141137214</v>
+        <v>0.09140148269297342</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1112285692946663</v>
+        <v>0.1118769074939263</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>920</v>
@@ -5873,19 +5873,19 @@
         <v>531358</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>496894</v>
+        <v>498232</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>567189</v>
+        <v>565742</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1425199382766901</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1332760432158711</v>
+        <v>0.1336348366137823</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1521303855933938</v>
+        <v>0.1517423272778262</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1319</v>
@@ -5894,19 +5894,19 @@
         <v>885816</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>836224</v>
+        <v>841980</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>935466</v>
+        <v>937553</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1221985721018364</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1153572788879741</v>
+        <v>0.1161513197098963</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1290477687207856</v>
+        <v>0.1293356704954007</v>
       </c>
     </row>
     <row r="18">
@@ -5923,19 +5923,19 @@
         <v>155163</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>133314</v>
+        <v>131851</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>179174</v>
+        <v>179854</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.04407187240326238</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.03786608118827381</v>
+        <v>0.03745032266491931</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.05089171147959014</v>
+        <v>0.05108498716324084</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>513</v>
@@ -5944,19 +5944,19 @@
         <v>298138</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>271927</v>
+        <v>271542</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>324974</v>
+        <v>322626</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>0.07996600194390595</v>
+        <v>0.07996600194390593</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.07293570911713966</v>
+        <v>0.07283246401800665</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.08716398636206486</v>
+        <v>0.08653431321604452</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>704</v>
@@ -5965,19 +5965,19 @@
         <v>453301</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>419103</v>
+        <v>420521</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>489920</v>
+        <v>491958</v>
       </c>
       <c r="U18" s="6" t="n">
-        <v>0.06253297429543592</v>
+        <v>0.06253297429543593</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.05781539925403947</v>
+        <v>0.05801096292559362</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.06758463969091001</v>
+        <v>0.06786568838141575</v>
       </c>
     </row>
     <row r="19">
